--- a/biology/Médecine/Alice_McLaren/Alice_McLaren.xlsx
+++ b/biology/Médecine/Alice_McLaren/Alice_McLaren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alice McLaren (1860 - 20 décembre 1945) est une médecin écossaise, gynécologue et défenseur de la santé et des droits des femmes. Elle fut la première femme médecin à Glasgow[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice McLaren (1860 - 20 décembre 1945) est une médecin écossaise, gynécologue et défenseur de la santé et des droits des femmes. Elle fut la première femme médecin à Glasgow.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Édimbourg de William Cunningham McLaren et de Maria Amelia Wilson, Alice McLaren est la dernière d'une fratrie de six enfants. Elle est l'une des cinq premières femmes à obtenir son diplôme de médecine à l'université de Londres en 1893[2] puis se forme au Glasgow Royal Infirmary (en)[3].
-Au cours de sa carrière, elle travaille dans un certain nombre d'établissements, notamment[2] :
-le Glasgow Women's Private Hospital, devenu le Redlands Hospital for Women, à la fondation duquel elle a participé avec une autre femme médecin, Elizabeth M. Ramsay[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Édimbourg de William Cunningham McLaren et de Maria Amelia Wilson, Alice McLaren est la dernière d'une fratrie de six enfants. Elle est l'une des cinq premières femmes à obtenir son diplôme de médecine à l'université de Londres en 1893 puis se forme au Glasgow Royal Infirmary (en).
+Au cours de sa carrière, elle travaille dans un certain nombre d'établissements, notamment :
+le Glasgow Women's Private Hospital, devenu le Redlands Hospital for Women, à la fondation duquel elle a participé avec une autre femme médecin, Elizabeth M. Ramsay.
 le Leith General Hospital (en),
 le Glasgow Lock Hospital (en)
 le Glasgow Royal Samaritan Hospital (en)
-le Glasgow Royal Mental Hospital (en), où elle est gynécologue consultante[5].
-Alice McLaren a été membre de la Scottish Women's Benefit Society[6]. Elle prend sa retraite en 1932 dans le village de Crail où elle décède en 1945[2].
+le Glasgow Royal Mental Hospital (en), où elle est gynécologue consultante.
+Alice McLaren a été membre de la Scottish Women's Benefit Society. Elle prend sa retraite en 1932 dans le village de Crail où elle décède en 1945.
 </t>
         </is>
       </c>
